--- a/로또선택번호.xlsx
+++ b/로또선택번호.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\etc\ETC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224954B9-E0F9-4A95-9F0E-7CA8A37D9BBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636787E4-3533-4E9E-AB16-FAF6A1D776C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3F66154-893D-4296-ADCA-04E5D9EE91D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3F66154-893D-4296-ADCA-04E5D9EE91D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -778,7 +778,7 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -878,12 +878,24 @@
       <c r="S2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="8"/>
+      <c r="T2" s="6">
+        <v>1</v>
+      </c>
+      <c r="U2" s="7">
+        <v>9</v>
+      </c>
+      <c r="V2" s="7">
+        <v>18</v>
+      </c>
+      <c r="W2" s="7">
+        <v>30</v>
+      </c>
+      <c r="X2" s="7">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>40</v>
+      </c>
       <c r="Z2" s="18" t="s">
         <v>5</v>
       </c>
@@ -932,12 +944,24 @@
       <c r="Q3" s="19"/>
       <c r="R3" s="10"/>
       <c r="S3" s="25"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="4"/>
+      <c r="T3" s="2">
+        <v>2</v>
+      </c>
+      <c r="U3" s="3">
+        <v>10</v>
+      </c>
+      <c r="V3" s="3">
+        <v>15</v>
+      </c>
+      <c r="W3" s="3">
+        <v>27</v>
+      </c>
+      <c r="X3" s="3">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>38</v>
+      </c>
       <c r="Z3" s="19"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -990,12 +1014,24 @@
       <c r="S4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="8"/>
+      <c r="T4" s="6">
+        <v>7</v>
+      </c>
+      <c r="U4" s="7">
+        <v>13</v>
+      </c>
+      <c r="V4" s="7">
+        <v>28</v>
+      </c>
+      <c r="W4" s="7">
+        <v>29</v>
+      </c>
+      <c r="X4" s="7">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>38</v>
+      </c>
       <c r="Z4" s="19"/>
     </row>
     <row r="5" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1042,12 +1078,24 @@
       <c r="Q5" s="19"/>
       <c r="R5" s="10"/>
       <c r="S5" s="26"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="4"/>
+      <c r="T5" s="2">
+        <v>2</v>
+      </c>
+      <c r="U5" s="3">
+        <v>11</v>
+      </c>
+      <c r="V5" s="3">
+        <v>19</v>
+      </c>
+      <c r="W5" s="3">
+        <v>20</v>
+      </c>
+      <c r="X5" s="3">
+        <v>38</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>40</v>
+      </c>
       <c r="Z5" s="19"/>
     </row>
     <row r="6" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1100,12 +1148,24 @@
       <c r="S6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="6"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="8"/>
+      <c r="T6" s="6">
+        <v>6</v>
+      </c>
+      <c r="U6" s="7">
+        <v>15</v>
+      </c>
+      <c r="V6" s="7">
+        <v>20</v>
+      </c>
+      <c r="W6" s="7">
+        <v>28</v>
+      </c>
+      <c r="X6" s="7">
+        <v>32</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>43</v>
+      </c>
       <c r="Z6" s="20"/>
     </row>
     <row r="7" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1137,13 +1197,27 @@
       <c r="J7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="K7" s="14">
+        <v>2</v>
+      </c>
+      <c r="L7" s="15">
+        <v>13</v>
+      </c>
+      <c r="M7" s="15">
+        <v>25</v>
+      </c>
+      <c r="N7" s="15">
+        <v>28</v>
+      </c>
+      <c r="O7" s="15">
+        <v>29</v>
+      </c>
+      <c r="P7" s="16">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>34</v>
+      </c>
       <c r="R7" s="11"/>
       <c r="S7" s="13" t="s">
         <v>4</v>

--- a/로또선택번호.xlsx
+++ b/로또선택번호.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\etc\ETC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636787E4-3533-4E9E-AB16-FAF6A1D776C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FF58DD-BA05-43A7-9096-8124AE4036D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3F66154-893D-4296-ADCA-04E5D9EE91D1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3F66154-893D-4296-ADCA-04E5D9EE91D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -778,7 +778,7 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1222,13 +1222,27 @@
       <c r="S7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="T7" s="14"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="17"/>
+      <c r="T7" s="14">
+        <v>1</v>
+      </c>
+      <c r="U7" s="15">
+        <v>21</v>
+      </c>
+      <c r="V7" s="15">
+        <v>25</v>
+      </c>
+      <c r="W7" s="15">
+        <v>29</v>
+      </c>
+      <c r="X7" s="15">
+        <v>34</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>37</v>
+      </c>
+      <c r="Z7" s="17">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
@@ -1268,12 +1282,24 @@
       <c r="A9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
+      <c r="B9" s="6">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7">
+        <v>37</v>
+      </c>
+      <c r="G9" s="8">
+        <v>42</v>
+      </c>
       <c r="H9" s="18" t="s">
         <v>5</v>
       </c>
@@ -1306,12 +1332,24 @@
     </row>
     <row r="10" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3">
+        <v>41</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45</v>
+      </c>
       <c r="H10" s="19"/>
       <c r="I10" s="10"/>
       <c r="J10" s="25"/>
@@ -1336,12 +1374,24 @@
       <c r="A11" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7">
+        <v>31</v>
+      </c>
+      <c r="E11" s="7">
+        <v>37</v>
+      </c>
+      <c r="F11" s="7">
+        <v>38</v>
+      </c>
+      <c r="G11" s="8">
+        <v>43</v>
+      </c>
       <c r="H11" s="19"/>
       <c r="I11" s="10"/>
       <c r="J11" s="24" t="s">
@@ -1368,12 +1418,24 @@
     </row>
     <row r="12" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3">
+        <v>34</v>
+      </c>
+      <c r="F12" s="3">
+        <v>36</v>
+      </c>
+      <c r="G12" s="4">
+        <v>40</v>
+      </c>
       <c r="H12" s="19"/>
       <c r="I12" s="10"/>
       <c r="J12" s="26"/>
@@ -1398,12 +1460,24 @@
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
+      <c r="B13" s="6">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7">
+        <v>32</v>
+      </c>
+      <c r="F13" s="7">
+        <v>40</v>
+      </c>
+      <c r="G13" s="8">
+        <v>43</v>
+      </c>
       <c r="H13" s="20"/>
       <c r="I13" s="10"/>
       <c r="J13" s="5" t="s">

--- a/로또선택번호.xlsx
+++ b/로또선택번호.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\etc\ETC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hyun_Folder\etc\ETC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FF58DD-BA05-43A7-9096-8124AE4036D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E1596-76D0-46F2-8945-4296EE2ECE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3F66154-893D-4296-ADCA-04E5D9EE91D1}"/>
   </bookViews>
@@ -434,6 +434,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,24 +459,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -778,7 +778,7 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -825,7 +825,7 @@
       <c r="Z1" s="23"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6">
@@ -846,11 +846,11 @@
       <c r="G2" s="8">
         <v>42</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="10"/>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="6">
@@ -871,11 +871,11 @@
       <c r="P2" s="8">
         <v>42</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="R2" s="10"/>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="T2" s="6">
@@ -896,12 +896,12 @@
       <c r="Y2" s="8">
         <v>40</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="25"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="2">
         <v>7</v>
       </c>
@@ -920,9 +920,9 @@
       <c r="G3" s="4">
         <v>40</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="25"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="2">
         <v>7</v>
       </c>
@@ -941,9 +941,9 @@
       <c r="P3" s="4">
         <v>43</v>
       </c>
-      <c r="Q3" s="19"/>
+      <c r="Q3" s="25"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="25"/>
+      <c r="S3" s="20"/>
       <c r="T3" s="2">
         <v>2</v>
       </c>
@@ -962,10 +962,10 @@
       <c r="Y3" s="4">
         <v>38</v>
       </c>
-      <c r="Z3" s="19"/>
+      <c r="Z3" s="25"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6">
@@ -986,9 +986,9 @@
       <c r="G4" s="8">
         <v>37</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="18" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="6">
@@ -1009,9 +1009,9 @@
       <c r="P4" s="8">
         <v>44</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="25"/>
       <c r="R4" s="10"/>
-      <c r="S4" s="24" t="s">
+      <c r="S4" s="18" t="s">
         <v>2</v>
       </c>
       <c r="T4" s="6">
@@ -1032,10 +1032,10 @@
       <c r="Y4" s="8">
         <v>38</v>
       </c>
-      <c r="Z4" s="19"/>
+      <c r="Z4" s="25"/>
     </row>
     <row r="5" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="26"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1054,9 +1054,9 @@
       <c r="G5" s="4">
         <v>38</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="26"/>
+      <c r="J5" s="19"/>
       <c r="K5" s="2">
         <v>17</v>
       </c>
@@ -1075,9 +1075,9 @@
       <c r="P5" s="4">
         <v>45</v>
       </c>
-      <c r="Q5" s="19"/>
+      <c r="Q5" s="25"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="26"/>
+      <c r="S5" s="19"/>
       <c r="T5" s="2">
         <v>2</v>
       </c>
@@ -1096,7 +1096,7 @@
       <c r="Y5" s="4">
         <v>40</v>
       </c>
-      <c r="Z5" s="19"/>
+      <c r="Z5" s="25"/>
     </row>
     <row r="6" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -1120,7 +1120,7 @@
       <c r="G6" s="8">
         <v>39</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="10"/>
       <c r="J6" s="5" t="s">
         <v>3</v>
@@ -1143,7 +1143,7 @@
       <c r="P6" s="8">
         <v>43</v>
       </c>
-      <c r="Q6" s="20"/>
+      <c r="Q6" s="26"/>
       <c r="R6" s="10"/>
       <c r="S6" s="5" t="s">
         <v>3</v>
@@ -1166,7 +1166,7 @@
       <c r="Y6" s="8">
         <v>43</v>
       </c>
-      <c r="Z6" s="20"/>
+      <c r="Z6" s="26"/>
     </row>
     <row r="7" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
@@ -1279,7 +1279,7 @@
       <c r="Z8" s="23"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="6">
@@ -1300,24 +1300,36 @@
       <c r="G9" s="8">
         <v>42</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="24" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="18" t="s">
+      <c r="K9" s="6">
         <v>5</v>
       </c>
+      <c r="L9" s="7">
+        <v>8</v>
+      </c>
+      <c r="M9" s="7">
+        <v>25</v>
+      </c>
+      <c r="N9" s="7">
+        <v>30</v>
+      </c>
+      <c r="O9" s="7">
+        <v>38</v>
+      </c>
+      <c r="P9" s="8">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>5</v>
+      </c>
       <c r="R9" s="10"/>
-      <c r="S9" s="24" t="s">
+      <c r="S9" s="18" t="s">
         <v>1</v>
       </c>
       <c r="T9" s="6"/>
@@ -1326,12 +1338,12 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="8"/>
-      <c r="Z9" s="18" t="s">
+      <c r="Z9" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="2">
         <v>4</v>
       </c>
@@ -1350,28 +1362,40 @@
       <c r="G10" s="4">
         <v>45</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>6</v>
+      </c>
+      <c r="M10" s="3">
+        <v>25</v>
+      </c>
+      <c r="N10" s="3">
+        <v>37</v>
+      </c>
+      <c r="O10" s="3">
+        <v>35</v>
+      </c>
+      <c r="P10" s="4">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="25"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="25"/>
+      <c r="S10" s="20"/>
       <c r="T10" s="2"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="4"/>
-      <c r="Z10" s="19"/>
+      <c r="Z10" s="25"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="6">
@@ -1392,20 +1416,32 @@
       <c r="G11" s="8">
         <v>43</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="19"/>
+      <c r="K11" s="6">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7">
+        <v>3</v>
+      </c>
+      <c r="M11" s="7">
+        <v>11</v>
+      </c>
+      <c r="N11" s="7">
+        <v>37</v>
+      </c>
+      <c r="O11" s="7">
+        <v>38</v>
+      </c>
+      <c r="P11" s="8">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="25"/>
       <c r="R11" s="10"/>
-      <c r="S11" s="24" t="s">
+      <c r="S11" s="18" t="s">
         <v>2</v>
       </c>
       <c r="T11" s="6"/>
@@ -1414,10 +1450,10 @@
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="8"/>
-      <c r="Z11" s="19"/>
+      <c r="Z11" s="25"/>
     </row>
     <row r="12" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -1436,25 +1472,37 @@
       <c r="G12" s="4">
         <v>40</v>
       </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="2">
+        <v>12</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3">
+        <v>36</v>
+      </c>
+      <c r="O12" s="3">
+        <v>38</v>
+      </c>
+      <c r="P12" s="4">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="25"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="26"/>
+      <c r="S12" s="19"/>
       <c r="T12" s="2"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="4"/>
-      <c r="Z12" s="19"/>
+      <c r="Z12" s="25"/>
     </row>
     <row r="13" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -1478,18 +1526,30 @@
       <c r="G13" s="8">
         <v>43</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="10"/>
       <c r="J13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="20"/>
+      <c r="K13" s="6">
+        <v>6</v>
+      </c>
+      <c r="L13" s="7">
+        <v>9</v>
+      </c>
+      <c r="M13" s="7">
+        <v>21</v>
+      </c>
+      <c r="N13" s="7">
+        <v>25</v>
+      </c>
+      <c r="O13" s="7">
+        <v>26</v>
+      </c>
+      <c r="P13" s="8">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="26"/>
       <c r="R13" s="10"/>
       <c r="S13" s="5" t="s">
         <v>3</v>
@@ -1500,19 +1560,33 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="8"/>
-      <c r="Z13" s="20"/>
+      <c r="Z13" s="26"/>
     </row>
     <row r="14" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
+      <c r="B14" s="14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15">
+        <v>6</v>
+      </c>
+      <c r="D14" s="15">
+        <v>13</v>
+      </c>
+      <c r="E14" s="15">
+        <v>37</v>
+      </c>
+      <c r="F14" s="15">
+        <v>38</v>
+      </c>
+      <c r="G14" s="16">
+        <v>40</v>
+      </c>
+      <c r="H14" s="17">
+        <v>9</v>
+      </c>
       <c r="I14" s="11"/>
       <c r="J14" s="13" t="s">
         <v>4</v>
@@ -1571,7 +1645,7 @@
       <c r="Z15" s="23"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="6"/>
@@ -1580,11 +1654,11 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="24" t="s">
         <v>5</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="18" t="s">
         <v>1</v>
       </c>
       <c r="K16" s="6"/>
@@ -1593,11 +1667,11 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="18" t="s">
+      <c r="Q16" s="24" t="s">
         <v>5</v>
       </c>
       <c r="R16" s="10"/>
-      <c r="S16" s="24" t="s">
+      <c r="S16" s="18" t="s">
         <v>1</v>
       </c>
       <c r="T16" s="6"/>
@@ -1606,40 +1680,40 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="8"/>
-      <c r="Z16" s="18" t="s">
+      <c r="Z16" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="19"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="25"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="2"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="19"/>
+      <c r="Q17" s="25"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="25"/>
+      <c r="S17" s="20"/>
       <c r="T17" s="2"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="19"/>
+      <c r="Z17" s="25"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="6"/>
@@ -1648,9 +1722,9 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="19"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="18" t="s">
         <v>2</v>
       </c>
       <c r="K18" s="6"/>
@@ -1659,9 +1733,9 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="19"/>
+      <c r="Q18" s="25"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="24" t="s">
+      <c r="S18" s="18" t="s">
         <v>2</v>
       </c>
       <c r="T18" s="6"/>
@@ -1670,35 +1744,35 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="8"/>
-      <c r="Z18" s="19"/>
+      <c r="Z18" s="25"/>
     </row>
     <row r="19" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="26"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="19"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="26"/>
+      <c r="J19" s="19"/>
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="19"/>
+      <c r="Q19" s="25"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="26"/>
+      <c r="S19" s="19"/>
       <c r="T19" s="2"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="4"/>
-      <c r="Z19" s="19"/>
+      <c r="Z19" s="25"/>
     </row>
     <row r="20" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
@@ -1710,7 +1784,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="20"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="10"/>
       <c r="J20" s="5" t="s">
         <v>3</v>
@@ -1721,7 +1795,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="20"/>
+      <c r="Q20" s="26"/>
       <c r="R20" s="10"/>
       <c r="S20" s="5" t="s">
         <v>3</v>
@@ -1732,7 +1806,7 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="8"/>
-      <c r="Z20" s="20"/>
+      <c r="Z20" s="26"/>
     </row>
     <row r="21" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
@@ -1803,7 +1877,7 @@
       <c r="Z22" s="23"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="6"/>
@@ -1812,11 +1886,11 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="24" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="10"/>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="18" t="s">
         <v>1</v>
       </c>
       <c r="K23" s="6"/>
@@ -1825,11 +1899,11 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="18" t="s">
+      <c r="Q23" s="24" t="s">
         <v>5</v>
       </c>
       <c r="R23" s="10"/>
-      <c r="S23" s="24" t="s">
+      <c r="S23" s="18" t="s">
         <v>1</v>
       </c>
       <c r="T23" s="6"/>
@@ -1838,40 +1912,40 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="8"/>
-      <c r="Z23" s="18" t="s">
+      <c r="Z23" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="25"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="19"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="25"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="19"/>
+      <c r="Q24" s="25"/>
       <c r="R24" s="10"/>
-      <c r="S24" s="25"/>
+      <c r="S24" s="20"/>
       <c r="T24" s="2"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="19"/>
+      <c r="Z24" s="25"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="6"/>
@@ -1880,9 +1954,9 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="19"/>
+      <c r="H25" s="25"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="18" t="s">
         <v>2</v>
       </c>
       <c r="K25" s="6"/>
@@ -1891,9 +1965,9 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="19"/>
+      <c r="Q25" s="25"/>
       <c r="R25" s="10"/>
-      <c r="S25" s="24" t="s">
+      <c r="S25" s="18" t="s">
         <v>2</v>
       </c>
       <c r="T25" s="6"/>
@@ -1902,35 +1976,35 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="8"/>
-      <c r="Z25" s="19"/>
+      <c r="Z25" s="25"/>
     </row>
     <row r="26" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="26"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="19"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="26"/>
+      <c r="J26" s="19"/>
       <c r="K26" s="2"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="19"/>
+      <c r="Q26" s="25"/>
       <c r="R26" s="10"/>
-      <c r="S26" s="26"/>
+      <c r="S26" s="19"/>
       <c r="T26" s="2"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="19"/>
+      <c r="Z26" s="25"/>
     </row>
     <row r="27" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
@@ -1942,7 +2016,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="20"/>
+      <c r="H27" s="26"/>
       <c r="I27" s="10"/>
       <c r="J27" s="5" t="s">
         <v>3</v>
@@ -1953,7 +2027,7 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="8"/>
-      <c r="Q27" s="20"/>
+      <c r="Q27" s="26"/>
       <c r="R27" s="10"/>
       <c r="S27" s="5" t="s">
         <v>3</v>
@@ -1964,7 +2038,7 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="8"/>
-      <c r="Z27" s="20"/>
+      <c r="Z27" s="26"/>
     </row>
     <row r="28" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
@@ -2002,12 +2076,32 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="Q2:Q6"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q16:Q20"/>
+    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="Z2:Z6"/>
+    <mergeCell ref="Z9:Z13"/>
+    <mergeCell ref="Z16:Z20"/>
+    <mergeCell ref="Z23:Z27"/>
+    <mergeCell ref="S15:Z15"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="S22:Z22"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S8:Z8"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J25:J26"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="J2:J3"/>
@@ -2024,32 +2118,12 @@
     <mergeCell ref="H9:H13"/>
     <mergeCell ref="H16:H20"/>
     <mergeCell ref="H23:H27"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="S8:Z8"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="Q2:Q6"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q16:Q20"/>
-    <mergeCell ref="Q23:Q27"/>
-    <mergeCell ref="Z2:Z6"/>
-    <mergeCell ref="Z9:Z13"/>
-    <mergeCell ref="Z16:Z20"/>
-    <mergeCell ref="Z23:Z27"/>
-    <mergeCell ref="S15:Z15"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="S22:Z22"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="H2:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
